--- a/plan/test/結合テスト/結合テスト仕様書-BP020商品カテゴリ登録(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP020商品カテゴリ登録(確認)画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA92C37-F3C4-45B3-A58D-D53353A249E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7321D50F-CC17-4D93-942D-BC6617E9EEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -202,19 +202,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>日本証券テクノロジー株式会社</t>
-    <rPh sb="0" eb="2">
-      <t>ニホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウケン</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>商品カテゴリ登録（入力）画面</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
@@ -357,16 +344,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「ログイン」画面が表示される。</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「商品情報メンテナンス」リンクを押下</t>
     <rPh sb="1" eb="5">
       <t>ショウヒンジョウホウ</t>
@@ -523,32 +500,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/ec-b/registerproductcategory/confirm」を入力</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/ec-b/registerproductcategory/confirm」を入力</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「商品カテゴリ登録（確認）画面」と表示されている</t>
     <rPh sb="1" eb="3">
       <t>ショウヒン</t>
@@ -604,41 +555,80 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>「戻る」リンクを押下</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ登録（入力」画面へ遷移すること</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「登録」ボタンを押下</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ登録（完了）画面に遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・商品カテゴリ名に「スポーツ用品」を入力していること</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨウヒン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>事前条件で指定した
 「商品カテゴリ名　スポーツ用品」
 と表示されている</t>
-    <rPh sb="0" eb="4">
-      <t>ジゼンジョウケン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヨウヒン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「戻る」リンクを押下</t>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「商品カテゴリ登録（入力」画面へ遷移すること</t>
     <rPh sb="1" eb="3">
       <t>ショウヒン</t>
     </rPh>
@@ -646,55 +636,56 @@
       <t>トウロク</t>
     </rPh>
     <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン前メニュー」画面が表示される。</t>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/registerproductcategory/confirm」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/registerproductcategory/confirm」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="13" eb="15">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「登録」ボタンを押下</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>シタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品カテゴリ登録（完了）画面に遷移する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本証券テクノロジー</t>
     <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・商品カテゴリ名に「スポーツ用品」を入力していること</t>
-    <rPh sb="1" eb="3">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヨウヒン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニュウリョク</t>
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1002,7 +993,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1064,6 +1055,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1116,6 +1122,63 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1124,77 +1187,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1548,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:Q3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1567,25 +1561,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1596,27 +1590,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1629,50 +1623,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="28" customHeight="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="37"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="37"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1684,17 +1678,17 @@
       <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
       <c r="G5" s="47"/>
       <c r="H5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1713,53 +1707,53 @@
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
@@ -1767,24 +1761,24 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
       <c r="F8" s="54"/>
       <c r="G8" s="55"/>
-      <c r="H8" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="43"/>
+      <c r="H8" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="45"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="45"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="52"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
@@ -1796,13 +1790,13 @@
       <c r="E9" s="57"/>
       <c r="F9" s="57"/>
       <c r="G9" s="58"/>
-      <c r="H9" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="43"/>
+      <c r="H9" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="45"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1819,13 +1813,13 @@
       <c r="E10" s="57"/>
       <c r="F10" s="57"/>
       <c r="G10" s="58"/>
-      <c r="H10" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
+      <c r="H10" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1842,13 +1836,13 @@
       <c r="E11" s="57"/>
       <c r="F11" s="57"/>
       <c r="G11" s="58"/>
-      <c r="H11" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="43"/>
+      <c r="H11" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1865,13 +1859,13 @@
       <c r="E12" s="57"/>
       <c r="F12" s="57"/>
       <c r="G12" s="58"/>
-      <c r="H12" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="43"/>
+      <c r="H12" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1888,18 +1882,18 @@
       <c r="E13" s="60"/>
       <c r="F13" s="60"/>
       <c r="G13" s="61"/>
-      <c r="H13" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="43"/>
+      <c r="H13" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="45"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="45"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="52"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
@@ -1907,24 +1901,24 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
       <c r="F14" s="54"/>
       <c r="G14" s="55"/>
-      <c r="H14" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="43"/>
+      <c r="H14" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="45"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="52"/>
     </row>
     <row r="15" spans="1:17" ht="58.5" customHeight="1">
       <c r="A15" s="6">
@@ -1936,13 +1930,13 @@
       <c r="E15" s="57"/>
       <c r="F15" s="57"/>
       <c r="G15" s="58"/>
-      <c r="H15" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="43"/>
+      <c r="H15" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1959,13 +1953,13 @@
       <c r="E16" s="57"/>
       <c r="F16" s="57"/>
       <c r="G16" s="58"/>
-      <c r="H16" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="43"/>
+      <c r="H16" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="45"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1982,13 +1976,13 @@
       <c r="E17" s="57"/>
       <c r="F17" s="57"/>
       <c r="G17" s="58"/>
-      <c r="H17" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
+      <c r="H17" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="45"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2005,13 +1999,13 @@
       <c r="E18" s="57"/>
       <c r="F18" s="57"/>
       <c r="G18" s="58"/>
-      <c r="H18" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
+      <c r="H18" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="45"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2023,174 +2017,172 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="43"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="45"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="19"/>
       <c r="Q19" s="20"/>
     </row>
-    <row r="20" spans="1:17" ht="50" customHeight="1">
+    <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="38" t="s">
+      <c r="B20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="40"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="18"/>
-    </row>
-    <row r="21" spans="1:17" ht="44" customHeight="1">
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+    </row>
+    <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="40"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="18"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2201,114 +2193,114 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="18"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="1:17" ht="11.25" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="64"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-    </row>
-    <row r="28" spans="1:17" ht="11.25" customHeight="1">
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+    </row>
+    <row r="28" spans="1:17" ht="50" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="18"/>
+      <c r="B28" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="64"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-    </row>
-    <row r="29" spans="1:17" ht="11.25" customHeight="1">
+      <c r="P28" s="16"/>
+      <c r="Q28" s="18"/>
+    </row>
+    <row r="29" spans="1:17" ht="44" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="38" t="s">
+      <c r="B29" s="25"/>
+      <c r="C29" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="40"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="64"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
+  <mergeCells count="62">
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C26:G26"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="H24:L24"/>
     <mergeCell ref="P24:Q24"/>
@@ -2317,22 +2309,23 @@
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:L22"/>
     <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
     <mergeCell ref="C14:G18"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="H16:L16"/>
     <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H17:L17"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="P8:Q8"/>
@@ -2341,6 +2334,17 @@
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2351,15 +2355,6 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP020商品カテゴリ登録(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP020商品カテゴリ登録(確認)画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7321D50F-CC17-4D93-942D-BC6617E9EEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37467559-AA03-4D24-8B5B-6F36688B5E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -484,22 +484,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>管理者ログイン後の「メニュー」画面へ遷移すること</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「商品カテゴリ登録（確認）画面」と表示されている</t>
     <rPh sb="1" eb="3">
       <t>ショウヒン</t>
@@ -561,25 +545,6 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「商品カテゴリ登録（入力」画面へ遷移すること</t>
-    <rPh sb="1" eb="3">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -686,6 +651,47 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ショウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ登録（入力」画面へ遷移し、セッションが保持される</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者ログイン後の「メニュー」画面へ遷移し、セッションが破棄される</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -993,7 +999,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1043,26 +1049,89 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1121,74 +1190,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1542,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B17" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1561,25 +1564,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1590,27 +1593,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="32" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1623,50 +1626,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="28" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="42"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="63"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="42"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="63"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1675,20 +1678,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1698,441 +1701,441 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="47"/>
+      <c r="Q5" s="44"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49" t="s">
+      <c r="B7" s="64"/>
+      <c r="C7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="43" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="52"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="43" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="20"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="19"/>
     </row>
     <row r="10" spans="1:17" ht="13.5" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="43" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="20"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="19"/>
     </row>
     <row r="11" spans="1:17" ht="11.25" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="43" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="45"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="20"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="19"/>
     </row>
     <row r="12" spans="1:17" ht="11.25" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="43" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="45"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="20"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="19"/>
     </row>
     <row r="13" spans="1:17" ht="11.25" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="43" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="45"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="52"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="38"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="45"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="52"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="38"/>
     </row>
     <row r="15" spans="1:17" ht="58.5" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="45"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="20"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="1:17" ht="11.25" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="43" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="45"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="20"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="1:17" ht="11.25" customHeight="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="45"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="20"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="19"/>
     </row>
     <row r="18" spans="1:17" ht="11.25" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="45"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="20"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="19"/>
     </row>
     <row r="19" spans="1:17" ht="11.25" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="43" t="s">
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="45"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="20"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="19"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="49" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="43" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="49" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="43" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="49" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="43" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="49" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2143,71 +2146,71 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="43" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="49" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-    </row>
-    <row r="25" spans="1:17" ht="11.25" customHeight="1">
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+    </row>
+    <row r="25" spans="1:17" ht="27.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="65" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="1:17" ht="11.25" customHeight="1">
+    <row r="26" spans="1:17" ht="22.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="18"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="26"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2218,81 +2221,128 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="64"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="30"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
     </row>
     <row r="28" spans="1:17" ht="50" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="62" t="s">
+      <c r="C28" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="64"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="16"/>
-      <c r="Q28" s="18"/>
+      <c r="Q28" s="17"/>
     </row>
     <row r="29" spans="1:17" ht="44" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="62" t="s">
+      <c r="B29" s="46"/>
+      <c r="C29" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="64"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="30"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="16"/>
-      <c r="Q29" s="18"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="63">
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H26:L26"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:L21"/>
@@ -2309,52 +2359,6 @@
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:L22"/>
     <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP020商品カテゴリ登録(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP020商品カテゴリ登録(確認)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37467559-AA03-4D24-8B5B-6F36688B5E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D70EA70-982D-4C3F-818B-2322ACE31E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -622,29 +622,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/registerproductcategory/confirm」を入力</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>チョクセツニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/registerproductcategory/confirm」を入力</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>日本証券テクノロジー</t>
     <rPh sb="0" eb="2">
       <t>ニホン</t>
@@ -692,6 +669,29 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>ハキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/admin/registerproductcategory/confirm」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/admin/registerproductcategory/confirm」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1067,131 +1067,131 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1546,7 +1546,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B17" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:L25"/>
+      <selection activeCell="C29" sqref="C29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1564,25 +1564,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1593,27 +1593,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="53" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="36"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1626,50 +1626,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="28" customHeight="1">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="62" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="63"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="63"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="41"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1678,20 +1678,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="42" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1701,105 +1701,105 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="42" t="s">
+      <c r="P5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="44"/>
+      <c r="Q5" s="46"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="24" t="s">
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="44"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="38"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="51"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="24" t="s">
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="44"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1811,18 +1811,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="24" t="s">
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="44"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1834,18 +1834,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="24" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="44"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1857,18 +1857,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="24" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="44"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1880,66 +1880,66 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="24" t="s">
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="38"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="51"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="24" t="s">
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="44"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="38"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="51"/>
     </row>
     <row r="15" spans="1:17" ht="58.5" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="24" t="s">
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="44"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1951,18 +1951,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="24" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="44"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1974,18 +1974,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="24" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="44"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -1997,18 +1997,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="24" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="44"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2020,20 +2020,20 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="24" t="s">
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="44"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2047,95 +2047,95 @@
       <c r="B20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="23" t="s">
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="23" t="s">
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="23" t="s">
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="23" t="s">
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2147,45 +2147,45 @@
         <v>19</v>
       </c>
       <c r="B24" s="21"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="23" t="s">
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
     </row>
     <row r="25" spans="1:17" ht="27.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="21"/>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2197,20 +2197,20 @@
         <v>21</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="26"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="44"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2222,47 +2222,47 @@
         <v>22</v>
       </c>
       <c r="B27" s="22"/>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="28" t="s">
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="30"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="63"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
     </row>
     <row r="28" spans="1:17" ht="50" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="28" t="s">
+      <c r="C28" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="30"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="63"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2273,21 +2273,21 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28" t="s">
+      <c r="B29" s="24"/>
+      <c r="C29" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="30"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="63"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -2296,6 +2296,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
@@ -2312,53 +2359,6 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP020商品カテゴリ登録(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP020商品カテゴリ登録(確認)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D70EA70-982D-4C3F-818B-2322ACE31E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB792791-EC46-4257-8EE9-CD39363419F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>作成者</t>
   </si>
@@ -692,6 +692,27 @@
     </rPh>
     <rPh sb="83" eb="85">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSRF対策：
+画面をリロードする</t>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのままの画面が表示されること</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1067,6 +1088,72 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1124,74 +1211,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1543,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B17" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:G29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1564,25 +1585,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1597,23 +1618,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="31" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1626,50 +1647,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="28" customHeight="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="41"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="63"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="41"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="63"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1678,20 +1699,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="45" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1701,105 +1722,105 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="45" t="s">
+      <c r="P5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="46"/>
+      <c r="Q5" s="44"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48" t="s">
+      <c r="B7" s="64"/>
+      <c r="C7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="42" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="44"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="51"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="42" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="44"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1811,18 +1832,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="42" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="44"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1834,18 +1855,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="42" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="44"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1857,18 +1878,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="42" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="44"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1880,66 +1901,66 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="42" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="44"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="51"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="38"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="42" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="44"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="51"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="38"/>
     </row>
     <row r="15" spans="1:17" ht="58.5" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="42" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="44"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1951,18 +1972,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="42" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="44"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1974,18 +1995,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="42" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="44"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -1997,18 +2018,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="42" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="44"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2020,20 +2041,20 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="42" t="s">
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="44"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2047,95 +2068,95 @@
       <c r="B20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="48" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="48" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="48" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="48" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2147,45 +2168,45 @@
         <v>19</v>
       </c>
       <c r="B24" s="21"/>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="48" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
     </row>
     <row r="25" spans="1:17" ht="27.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="21"/>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="64" t="s">
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2197,20 +2218,20 @@
         <v>21</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="42" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="44"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="26"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2222,47 +2243,47 @@
         <v>22</v>
       </c>
       <c r="B27" s="22"/>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="61" t="s">
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="63"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="30"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
     </row>
     <row r="28" spans="1:17" ht="50" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="61" t="s">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="63"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2273,29 +2294,103 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="64" t="s">
+      <c r="B29" s="64"/>
+      <c r="C29" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="61" t="s">
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="63"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="30"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="17"/>
     </row>
+    <row r="30" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A30" s="6">
+        <v>22</v>
+      </c>
+      <c r="B30" s="46"/>
+      <c r="C30" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="63">
+  <mergeCells count="65">
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H26:L26"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:L21"/>
@@ -2312,53 +2407,6 @@
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:L22"/>
     <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP020商品カテゴリ登録(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP020商品カテゴリ登録(確認)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB792791-EC46-4257-8EE9-CD39363419F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E66B905-F509-490C-8082-A507660BBC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>作成者</t>
   </si>
@@ -713,6 +713,17 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1088,131 +1099,131 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1566,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E14" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1585,25 +1596,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1618,23 +1629,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="53" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1647,50 +1658,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="28" customHeight="1">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="62" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="63"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="48"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="63"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="48"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1699,20 +1710,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="42" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1722,108 +1733,132 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="42" t="s">
+      <c r="P5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="44"/>
+      <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23" t="s">
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="24" t="s">
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="38"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="54"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="24" t="s">
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="19"/>
     </row>
@@ -1832,21 +1867,27 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="24" t="s">
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="19"/>
     </row>
@@ -1855,21 +1896,27 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="24" t="s">
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="19"/>
     </row>
@@ -1878,21 +1925,27 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="24" t="s">
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="19"/>
     </row>
@@ -1901,69 +1954,87 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="24" t="s">
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="38"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="54"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="24" t="s">
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="38"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="54"/>
     </row>
     <row r="15" spans="1:17" ht="58.5" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="24" t="s">
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="19"/>
     </row>
@@ -1972,21 +2043,27 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="24" t="s">
+      <c r="C16" s="58"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="19"/>
     </row>
@@ -1995,21 +2072,27 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="24" t="s">
+      <c r="C17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P17" s="18"/>
       <c r="Q17" s="19"/>
     </row>
@@ -2018,21 +2101,27 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="24" t="s">
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="19"/>
     </row>
@@ -2041,23 +2130,29 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="24" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="19"/>
     </row>
@@ -2068,95 +2163,95 @@
       <c r="B20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="23" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="23" t="s">
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="23" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="23" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2168,45 +2263,45 @@
         <v>19</v>
       </c>
       <c r="B24" s="21"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="23" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
     </row>
     <row r="25" spans="1:17" ht="27.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="21"/>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="27" t="s">
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2218,20 +2313,20 @@
         <v>21</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="24" t="s">
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="26"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2243,47 +2338,47 @@
         <v>22</v>
       </c>
       <c r="B27" s="22"/>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="28" t="s">
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="30"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="28"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
     </row>
     <row r="28" spans="1:17" ht="50" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="28" t="s">
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="30"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="28"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2294,21 +2389,21 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="27" t="s">
+      <c r="B29" s="30"/>
+      <c r="C29" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28" t="s">
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="30"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="28"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -2319,21 +2414,21 @@
       <c r="A30" s="6">
         <v>22</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="24" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="28" t="s">
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="30"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="28"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -2342,6 +2437,55 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="H30:L30"/>
     <mergeCell ref="B28:B30"/>
@@ -2358,55 +2502,6 @@
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP020商品カテゴリ登録(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP020商品カテゴリ登録(確認)画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E66B905-F509-490C-8082-A507660BBC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5401F72-28E3-42D5-80C4-D00AFBB40E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>作成者</t>
   </si>
@@ -724,6 +724,37 @@
     <t>高良</t>
     <rPh sb="0" eb="2">
       <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良・舘川</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タテカワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未実装</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン前メニューに遷移してしまう</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1099,6 +1130,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1108,6 +1142,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1117,6 +1154,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1176,54 +1255,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1577,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E14" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G15" zoomScale="84" zoomScaleNormal="84" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1596,25 +1627,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1629,23 +1660,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="38" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1655,53 +1686,55 @@
       <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="12" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="28" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="48"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="64"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="48"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="64"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1710,20 +1743,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="49" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1733,32 +1766,32 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="49" t="s">
+      <c r="P5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="50"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="15">
         <v>45503</v>
       </c>
@@ -1768,28 +1801,28 @@
       <c r="O6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="51" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="15">
         <v>45503</v>
       </c>
@@ -1799,28 +1832,28 @@
       <c r="O7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="23" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="15">
         <v>45503</v>
       </c>
@@ -1830,26 +1863,26 @@
       <c r="O8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="54"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="23" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="15">
         <v>45503</v>
       </c>
@@ -1867,18 +1900,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="23" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="15">
         <v>45503</v>
       </c>
@@ -1896,18 +1929,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="23" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="15">
         <v>45503</v>
       </c>
@@ -1925,18 +1958,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="23" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="15">
         <v>45503</v>
       </c>
@@ -1954,18 +1987,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="23" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
       <c r="M13" s="15">
         <v>45503</v>
       </c>
@@ -1975,28 +2008,28 @@
       <c r="O13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="54"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="38"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="23" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="15">
         <v>45503</v>
       </c>
@@ -2006,26 +2039,26 @@
       <c r="O14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="54"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="38"/>
     </row>
     <row r="15" spans="1:17" ht="58.5" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="23" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="15">
         <v>45503</v>
       </c>
@@ -2043,18 +2076,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="23" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="15">
         <v>45503</v>
       </c>
@@ -2072,18 +2105,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="23" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
       <c r="M17" s="15">
         <v>45503</v>
       </c>
@@ -2101,18 +2134,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="23" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
       <c r="M18" s="15">
         <v>45503</v>
       </c>
@@ -2130,20 +2163,20 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="23" t="s">
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
       <c r="M19" s="15">
         <v>45503</v>
       </c>
@@ -2163,98 +2196,106 @@
       <c r="B20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="51" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
+      <c r="O20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="51" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
+      <c r="O21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="51" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
+      <c r="O22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="51" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
+      <c r="O23" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
     </row>
@@ -2263,48 +2304,54 @@
         <v>19</v>
       </c>
       <c r="B24" s="21"/>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="51" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
+      <c r="O24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q24" s="23"/>
     </row>
     <row r="25" spans="1:17" ht="27.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="21"/>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="64" t="s">
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
+      <c r="O25" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
     </row>
@@ -2313,23 +2360,25 @@
         <v>21</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="23" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="26"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
+      <c r="O26" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
     </row>
@@ -2338,50 +2387,54 @@
         <v>22</v>
       </c>
       <c r="B27" s="22"/>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="26" t="s">
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="28"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="30"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
+      <c r="O27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
     </row>
     <row r="28" spans="1:17" ht="50" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="26" t="s">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="28"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
+      <c r="O28" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
     </row>
@@ -2389,24 +2442,26 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="64" t="s">
+      <c r="B29" s="46"/>
+      <c r="C29" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="26" t="s">
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="28"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="30"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
+      <c r="O29" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="P29" s="16"/>
       <c r="Q29" s="17"/>
     </row>
@@ -2414,29 +2469,80 @@
       <c r="A30" s="6">
         <v>22</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="23" t="s">
+      <c r="B30" s="47"/>
+      <c r="C30" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="26" t="s">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="28"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="30"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
+      <c r="O30" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="P30" s="16"/>
       <c r="Q30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H26:L26"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:L21"/>
@@ -2453,55 +2559,6 @@
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:L22"/>
     <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP020商品カテゴリ登録(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP020商品カテゴリ登録(確認)画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5401F72-28E3-42D5-80C4-D00AFBB40E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3441C51C-453E-4B9A-ABB2-A3608A229CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
   <si>
     <t>作成者</t>
   </si>
@@ -464,16 +464,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログイン画面へ遷移すること</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「キャンセル」リンクを押下</t>
     <rPh sb="11" eb="12">
       <t>オ</t>
@@ -529,35 +519,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「登録」ボタンが表示されている</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「戻る」リンクを押下</t>
     <rPh sb="1" eb="2">
       <t>モド</t>
     </rPh>
     <rPh sb="8" eb="10">
       <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「登録」ボタンを押下</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>シタ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -745,16 +712,45 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン前メニューに遷移してしまう</t>
+    <t>「完了」ボタンが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン前メニューに遷移すること</t>
     <rPh sb="4" eb="5">
       <t>マエ</t>
     </rPh>
     <rPh sb="10" eb="12">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「完了」ボタンを押下</t>
+    <rPh sb="1" eb="3">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修正済み</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1130,6 +1126,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1145,15 +1153,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1171,12 +1173,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1608,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G15" zoomScale="84" zoomScaleNormal="84" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="84" zoomScaleNormal="84" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1656,7 +1652,7 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
@@ -1687,7 +1683,7 @@
         <v>5</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="28" customHeight="1">
@@ -1696,7 +1692,7 @@
       </c>
       <c r="B3" s="61"/>
       <c r="C3" s="63" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="63"/>
@@ -1778,119 +1774,119 @@
       <c r="B6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
       <c r="M6" s="15">
         <v>45503</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
+        <v>63</v>
+      </c>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
       <c r="B7" s="46"/>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="15">
         <v>45503</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+        <v>63</v>
+      </c>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="24" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
       <c r="M8" s="15">
         <v>45503</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="38"/>
+        <v>63</v>
+      </c>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="24" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
       <c r="M9" s="15">
         <v>45503</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="19"/>
@@ -1900,26 +1896,26 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="24" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
       <c r="M10" s="15">
         <v>45503</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="19"/>
@@ -1929,26 +1925,26 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="24" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
       <c r="M11" s="15">
         <v>45503</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="19"/>
@@ -1958,26 +1954,26 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="24" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
       <c r="M12" s="15">
         <v>45503</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="19"/>
@@ -1992,81 +1988,81 @@
       <c r="E13" s="43"/>
       <c r="F13" s="43"/>
       <c r="G13" s="44"/>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="30"/>
       <c r="M13" s="15">
         <v>45503</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="38"/>
+        <v>63</v>
+      </c>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="24"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
       <c r="M14" s="15">
         <v>45503</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="38"/>
+        <v>63</v>
+      </c>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="24"/>
     </row>
     <row r="15" spans="1:17" ht="58.5" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
       <c r="M15" s="15">
         <v>45503</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="19"/>
@@ -2076,26 +2072,26 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="24" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
       <c r="M16" s="15">
         <v>45503</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="19"/>
@@ -2105,26 +2101,26 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
       <c r="M17" s="15">
         <v>45503</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P17" s="18"/>
       <c r="Q17" s="19"/>
@@ -2134,26 +2130,26 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
       <c r="M18" s="15">
         <v>45503</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="19"/>
@@ -2163,28 +2159,28 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="24" t="s">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="30"/>
       <c r="M19" s="15">
         <v>45503</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="19"/>
@@ -2196,218 +2192,216 @@
       <c r="B20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="23" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
+        <v>63</v>
+      </c>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="23" t="s">
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
+        <v>63</v>
+      </c>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="23" t="s">
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
+        <v>66</v>
+      </c>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="23" t="s">
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="24"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="21"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P24" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q24" s="23"/>
+        <v>63</v>
+      </c>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
     </row>
     <row r="25" spans="1:17" ht="27.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="21"/>
-      <c r="C25" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
+      <c r="C25" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="26"/>
     </row>
     <row r="26" spans="1:17" ht="22.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="26"/>
+      <c r="C26" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="30"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="24"/>
     </row>
     <row r="27" spans="1:17" ht="11.25" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
       <c r="B27" s="22"/>
-      <c r="C27" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="30"/>
+      <c r="C27" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="26"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
+        <v>63</v>
+      </c>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
     </row>
     <row r="28" spans="1:17" ht="50" customHeight="1">
       <c r="A28" s="6">
@@ -2416,26 +2410,28 @@
       <c r="B28" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="28" t="s">
+      <c r="C28" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="30"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="26"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
     </row>
     <row r="29" spans="1:17" ht="44" customHeight="1">
@@ -2443,26 +2439,28 @@
         <v>24</v>
       </c>
       <c r="B29" s="46"/>
-      <c r="C29" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="30"/>
+      <c r="C29" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="26"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="P29" s="16"/>
       <c r="Q29" s="17"/>
     </row>
     <row r="30" spans="1:17" ht="58.5" customHeight="1">
@@ -2470,30 +2468,30 @@
         <v>22</v>
       </c>
       <c r="B30" s="47"/>
-      <c r="C30" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="30"/>
+      <c r="C30" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="26"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="P30" s="16"/>
       <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="68">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="H30:L30"/>
     <mergeCell ref="B28:B30"/>
@@ -2543,10 +2541,6 @@
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="H27:L27"/>
     <mergeCell ref="P27:Q27"/>
@@ -2556,6 +2550,13 @@
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:L22"/>
     <mergeCell ref="P22:Q22"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP020商品カテゴリ登録(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP020商品カテゴリ登録(確認)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3441C51C-453E-4B9A-ABB2-A3608A229CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A0A25B-B2A2-42B2-A479-2755DCDFCAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>作成者</t>
   </si>
@@ -751,6 +751,13 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川</t>
+    <rPh sb="0" eb="2">
+      <t>タチカワ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1058,7 +1065,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1078,38 +1085,137 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1117,140 +1223,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1604,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="84" zoomScaleNormal="84" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C15" zoomScale="84" zoomScaleNormal="84" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1623,25 +1627,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1656,842 +1660,938 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="54" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="9" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="9">
         <v>45496</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="28" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="63" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="64"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="64"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="46"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="39" t="s">
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="14" t="s">
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="41"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27" t="s">
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="15">
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="63">
         <v>45503</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="15">
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="63">
         <v>45503</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="33" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="28" t="s">
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="15">
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="63">
         <v>45503</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="52"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="28" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="15">
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="63">
         <v>45503</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="19"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="17"/>
     </row>
     <row r="10" spans="1:17" ht="13.5" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="28" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="15">
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="63">
         <v>45503</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="19"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="17"/>
     </row>
     <row r="11" spans="1:17" ht="11.25" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="28" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="15">
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="63">
         <v>45503</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="19"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="17"/>
     </row>
     <row r="12" spans="1:17" ht="11.25" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="28" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="15">
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="63">
         <v>45503</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="19"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="17"/>
     </row>
     <row r="13" spans="1:17" ht="11.25" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="28" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="15">
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="63">
         <v>45503</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="24"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="52"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="33" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="28" t="s">
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="15">
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="63">
         <v>45503</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="24"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="52"/>
     </row>
     <row r="15" spans="1:17" ht="58.5" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="28" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="15">
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="63">
         <v>45503</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="19"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="11.25" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="28" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="15">
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="63">
         <v>45503</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="19"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="11.25" customHeight="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="28" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="15">
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="63">
         <v>45503</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="19"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="11.25" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="28" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="15">
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="63">
         <v>45503</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="19"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="11.25" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="15">
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="63">
         <v>45503</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="19"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="27" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7" t="s">
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="63">
+        <v>45504</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="28" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="27" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7" t="s">
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="63">
+        <v>45504</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="28" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="27" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7" t="s">
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="63">
+        <v>45504</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="28" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="27" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7" t="s">
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="63">
+        <v>45504</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="24"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="52"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="28" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="27" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7" t="s">
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="63">
+        <v>45504</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
     </row>
     <row r="25" spans="1:17" ht="27.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="31" t="s">
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7" t="s">
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="63">
+        <v>45504</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P25" s="25"/>
+      <c r="P25" s="24"/>
       <c r="Q25" s="26"/>
     </row>
     <row r="26" spans="1:17" ht="22.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="28" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="28" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7" t="s">
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="63">
+        <v>45504</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="24"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="52"/>
     </row>
     <row r="27" spans="1:17" ht="11.25" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="31" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="25" t="s">
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
       <c r="L27" s="26"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7" t="s">
+      <c r="M27" s="63">
+        <v>45504</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
     </row>
     <row r="28" spans="1:17" ht="50" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="25" t="s">
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
       <c r="L28" s="26"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7" t="s">
+      <c r="M28" s="63">
+        <v>45504</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P28" s="16" t="s">
+      <c r="P28" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Q28" s="17"/>
+      <c r="Q28" s="15"/>
     </row>
     <row r="29" spans="1:17" ht="44" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="31" t="s">
+      <c r="B29" s="28"/>
+      <c r="C29" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="25" t="s">
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
       <c r="L29" s="26"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7" t="s">
+      <c r="M29" s="63">
+        <v>45504</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P29" s="16" t="s">
+      <c r="P29" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Q29" s="17"/>
+      <c r="Q29" s="15"/>
     </row>
     <row r="30" spans="1:17" ht="58.5" customHeight="1">
       <c r="A30" s="6">
         <v>22</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="28" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="25" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
       <c r="L30" s="26"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7" t="s">
+      <c r="M30" s="63">
+        <v>45504</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="17"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="H30:L30"/>
     <mergeCell ref="B28:B30"/>
@@ -2508,58 +2608,6 @@
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP020商品カテゴリ登録(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP020商品カテゴリ登録(確認)画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A0A25B-B2A2-42B2-A479-2755DCDFCAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E67BAA-3C71-4639-890E-945099F971C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
   <si>
     <t>作成者</t>
   </si>
@@ -330,16 +330,6 @@
     <t>セキュリティ確認</t>
     <rPh sb="6" eb="8">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「不正な操作」</t>
-    <rPh sb="1" eb="3">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1127,6 +1117,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1136,13 +1144,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1204,57 +1245,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1608,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C15" zoomScale="84" zoomScaleNormal="84" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20:N30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" zoomScale="84" zoomScaleNormal="84" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1627,25 +1617,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1656,27 +1646,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="36" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1687,54 +1677,54 @@
         <v>5</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="28" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="46"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="63"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="46"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="63"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1743,20 +1733,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="47" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1766,131 +1756,131 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="47" t="s">
+      <c r="P5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="48"/>
+      <c r="Q5" s="40"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="63">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="21">
         <v>45503</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
+        <v>62</v>
+      </c>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="49" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="63">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="21">
         <v>45503</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
+        <v>62</v>
+      </c>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="21" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="63">
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="21">
         <v>45503</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="52"/>
+        <v>62</v>
+      </c>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="23"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="21" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="63">
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="21">
         <v>45503</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
@@ -1900,26 +1890,26 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="21" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="63">
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="21">
         <v>45503</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
@@ -1929,26 +1919,26 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="21" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="63">
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="21">
         <v>45503</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
@@ -1958,26 +1948,26 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="21" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="63">
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="21">
         <v>45503</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
@@ -1987,86 +1977,86 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="21" t="s">
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="63">
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="21">
         <v>45503</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="52"/>
+        <v>62</v>
+      </c>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="23"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="63">
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="21">
         <v>45503</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="52"/>
+        <v>62</v>
+      </c>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="23"/>
     </row>
     <row r="15" spans="1:17" ht="58.5" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="63">
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="21">
         <v>45503</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
@@ -2076,26 +2066,26 @@
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="21" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="63">
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="21">
         <v>45503</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
@@ -2105,26 +2095,26 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="63">
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="21">
         <v>45503</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
@@ -2134,26 +2124,26 @@
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="63">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="21">
         <v>45503</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
@@ -2166,25 +2156,25 @@
       <c r="C19" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="21" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="63">
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="21">
         <v>45503</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
@@ -2196,281 +2186,281 @@
       <c r="B20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="63">
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="21">
         <v>45504</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
+        <v>62</v>
+      </c>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="19"/>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="63">
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="21">
         <v>45504</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
+        <v>62</v>
+      </c>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="19"/>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="63">
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="21">
         <v>45504</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
+        <v>65</v>
+      </c>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="19"/>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="63">
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="21">
         <v>45504</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="52"/>
+        <v>62</v>
+      </c>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="23"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="19"/>
-      <c r="C24" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="63">
+      <c r="C24" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="21">
         <v>45504</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
+        <v>62</v>
+      </c>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
     </row>
     <row r="25" spans="1:17" ht="27.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="19"/>
-      <c r="C25" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="63">
+      <c r="C25" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="21">
         <v>45504</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P25" s="24"/>
-      <c r="Q25" s="26"/>
+      <c r="Q25" s="25"/>
     </row>
     <row r="26" spans="1:17" ht="22.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
       <c r="B26" s="19"/>
-      <c r="C26" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="63">
+      <c r="C26" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="21">
         <v>45504</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="52"/>
+        <v>62</v>
+      </c>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="23"/>
     </row>
     <row r="27" spans="1:17" ht="11.25" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
       <c r="B27" s="20"/>
-      <c r="C27" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
+      <c r="C27" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="63">
+        <v>51</v>
+      </c>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="21">
         <v>45504</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
+        <v>62</v>
+      </c>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
     </row>
     <row r="28" spans="1:17" ht="50" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
+      <c r="C28" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
       <c r="H28" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="63">
+        <v>61</v>
+      </c>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="21">
         <v>45504</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q28" s="15"/>
     </row>
@@ -2478,32 +2468,32 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="63">
+        <v>54</v>
+      </c>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="21">
         <v>45504</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q29" s="15"/>
     </row>
@@ -2511,87 +2501,35 @@
       <c r="A30" s="6">
         <v>22</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="21" t="s">
+      <c r="B30" s="46"/>
+      <c r="C30" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24" t="s">
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="21">
+        <v>45504</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="63">
-        <v>45504</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="P30" s="14"/>
       <c r="Q30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="H30:L30"/>
     <mergeCell ref="B28:B30"/>
@@ -2608,6 +2546,58 @@
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
